--- a/ISRaD_data_files/Laskar_2012.xlsx
+++ b/ISRaD_data_files/Laskar_2012.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20384"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfromm\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CA5003-85AC-4122-A271-42692B234DC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23720" windowHeight="12520" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23724" windowHeight="12516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="978">
   <si>
     <t>entry_name</t>
   </si>
@@ -2954,13 +2960,22 @@
   </si>
   <si>
     <t>frc_fraction_modern_sd</t>
+  </si>
+  <si>
+    <t>pro_usda_soil_order</t>
+  </si>
+  <si>
+    <t>Spodosols</t>
+  </si>
+  <si>
+    <t>Inceptisols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3003,8 +3018,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3017,8 +3038,14 @@
         <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3054,6 +3081,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3067,7 +3105,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3078,6 +3116,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3090,10 +3131,18 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_layer" xfId="7"/>
+    <cellStyle name="Normal_layer" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3375,14 +3424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3432,7 +3483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3479,7 +3530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3517,7 +3568,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3570,19 +3621,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3605,7 +3656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3628,7 +3679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3645,7 +3696,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3674,16 +3725,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:M5"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3723,77 +3774,80 @@
       <c r="M1" t="s">
         <v>85</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="O1" t="s">
         <v>86</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>87</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>89</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>90</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>91</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>92</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>93</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>94</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>95</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>96</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>98</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>100</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>101</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>103</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>105</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>106</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>107</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3833,77 +3887,77 @@
       <c r="M2" t="s">
         <v>117</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>118</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>119</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>120</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>121</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>122</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>123</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>124</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>125</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>126</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>127</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>128</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>129</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>130</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>132</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>133</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>134</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>135</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>136</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>137</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>138</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>139</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3931,29 +3985,26 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>146</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>148</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>149</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>150</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>151</v>
-      </c>
-      <c r="V3" t="s">
-        <v>152</v>
       </c>
       <c r="W3" t="s">
         <v>152</v>
@@ -3962,43 +4013,46 @@
         <v>152</v>
       </c>
       <c r="Y3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z3" t="s">
         <v>153</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>154</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>155</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>156</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>157</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>158</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>149</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>159</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>160</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>161</v>
       </c>
       <c r="AI3" t="s">
         <v>161</v>
       </c>
       <c r="AJ3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4021,19 +4075,22 @@
         <v>3200</v>
       </c>
       <c r="N4" t="s">
+        <v>976</v>
+      </c>
+      <c r="O4" t="s">
         <v>164</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>165</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>166</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4056,21 +4113,24 @@
         <v>3200</v>
       </c>
       <c r="N5" t="s">
+        <v>977</v>
+      </c>
+      <c r="O5" t="s">
         <v>169</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>165</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>170</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4080,14 +4140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4200,7 +4260,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4310,7 +4370,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4402,16 +4462,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4707,7 +4767,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5003,7 +5063,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5242,7 +5302,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5272,7 +5332,7 @@
       </c>
       <c r="BD4" s="1"/>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5302,7 +5362,7 @@
       </c>
       <c r="BD5" s="1"/>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5334,7 +5394,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5366,7 +5426,7 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5398,7 +5458,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5430,7 +5490,7 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:98">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -5462,7 +5522,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:98">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5494,7 +5554,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:98">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -5526,7 +5586,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:98">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -5558,7 +5618,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:98">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -5590,7 +5650,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:98">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -5622,7 +5682,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:98">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -5648,7 +5708,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -5674,7 +5734,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5700,7 +5760,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -5726,7 +5786,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -5752,7 +5812,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -5778,7 +5838,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5804,7 +5864,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -5830,7 +5890,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -5856,7 +5916,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -5882,7 +5942,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -5908,7 +5968,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -5934,7 +5994,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -5960,7 +6020,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -5986,7 +6046,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -6012,7 +6072,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -6050,14 +6110,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6143,7 +6203,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6226,7 +6286,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6285,16 +6345,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="52">
+    <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6515,7 +6575,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6733,7 +6793,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6912,14 +6972,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7011,7 +7071,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7094,7 +7154,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7153,14 +7213,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>731</v>
       </c>
@@ -7294,7 +7354,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -7428,7 +7488,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>777</v>
       </c>
@@ -7451,7 +7511,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>782</v>
       </c>
@@ -7585,7 +7645,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>815</v>
       </c>
@@ -7698,7 +7758,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>847</v>
       </c>
@@ -7799,7 +7859,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>874</v>
       </c>
@@ -7873,7 +7933,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>895</v>
       </c>
@@ -7941,7 +8001,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>911</v>
       </c>
@@ -7994,7 +8054,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>927</v>
       </c>
@@ -8026,7 +8086,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>937</v>
       </c>
@@ -8052,7 +8112,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>944</v>
       </c>
@@ -8069,7 +8129,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U13" t="s">
         <v>949</v>
       </c>
@@ -8083,7 +8143,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U14" t="s">
         <v>953</v>
       </c>
@@ -8094,7 +8154,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U15" t="s">
         <v>956</v>
       </c>
@@ -8105,7 +8165,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U16" t="s">
         <v>959</v>
       </c>
@@ -8116,7 +8176,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="17" spans="40:41">
+    <row r="17" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN17" t="s">
         <v>962</v>
       </c>
@@ -8124,7 +8184,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="18" spans="40:41">
+    <row r="18" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN18" t="s">
         <v>964</v>
       </c>
@@ -8132,7 +8192,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="19" spans="40:41">
+    <row r="19" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN19" t="s">
         <v>966</v>
       </c>
@@ -8140,7 +8200,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="20" spans="40:41">
+    <row r="20" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN20" t="s">
         <v>968</v>
       </c>
@@ -8148,7 +8208,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="21" spans="40:41">
+    <row r="21" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN21" t="s">
         <v>970</v>
       </c>
